--- a/Scheveningen/Excel/Write_to/obs/Theta0.xlsx
+++ b/Scheveningen/Excel/Write_to/obs/Theta0.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5466"/>
+  <dimension ref="A1:D5896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60516,6 +60516,4736 @@
         <v>211</v>
       </c>
     </row>
+    <row r="5467" spans="1:3">
+      <c r="A5467" s="1">
+        <v>5465</v>
+      </c>
+      <c r="B5467" s="2">
+        <v>44246.45833333334</v>
+      </c>
+      <c r="C5467">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5468" spans="1:3">
+      <c r="A5468" s="1">
+        <v>5466</v>
+      </c>
+      <c r="B5468" s="2">
+        <v>44246.46527777778</v>
+      </c>
+      <c r="C5468">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5469" spans="1:3">
+      <c r="A5469" s="1">
+        <v>5467</v>
+      </c>
+      <c r="B5469" s="2">
+        <v>44246.47222222222</v>
+      </c>
+      <c r="C5469">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5470" spans="1:3">
+      <c r="A5470" s="1">
+        <v>5468</v>
+      </c>
+      <c r="B5470" s="2">
+        <v>44246.47916666666</v>
+      </c>
+      <c r="C5470">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5471" spans="1:3">
+      <c r="A5471" s="1">
+        <v>5469</v>
+      </c>
+      <c r="B5471" s="2">
+        <v>44246.48611111111</v>
+      </c>
+      <c r="C5471">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5472" spans="1:3">
+      <c r="A5472" s="1">
+        <v>5470</v>
+      </c>
+      <c r="B5472" s="2">
+        <v>44246.49305555555</v>
+      </c>
+      <c r="C5472">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5473" spans="1:3">
+      <c r="A5473" s="1">
+        <v>5471</v>
+      </c>
+      <c r="B5473" s="2">
+        <v>44246.5</v>
+      </c>
+      <c r="C5473">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5474" spans="1:3">
+      <c r="A5474" s="1">
+        <v>5472</v>
+      </c>
+      <c r="B5474" s="2">
+        <v>44246.50694444445</v>
+      </c>
+      <c r="C5474">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5475" spans="1:3">
+      <c r="A5475" s="1">
+        <v>5473</v>
+      </c>
+      <c r="B5475" s="2">
+        <v>44246.51388888889</v>
+      </c>
+      <c r="C5475">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5476" spans="1:3">
+      <c r="A5476" s="1">
+        <v>5474</v>
+      </c>
+      <c r="B5476" s="2">
+        <v>44246.52083333334</v>
+      </c>
+      <c r="C5476">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5477" spans="1:3">
+      <c r="A5477" s="1">
+        <v>5475</v>
+      </c>
+      <c r="B5477" s="2">
+        <v>44246.52777777778</v>
+      </c>
+      <c r="C5477">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5478" spans="1:3">
+      <c r="A5478" s="1">
+        <v>5476</v>
+      </c>
+      <c r="B5478" s="2">
+        <v>44246.53472222222</v>
+      </c>
+      <c r="C5478">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5479" spans="1:3">
+      <c r="A5479" s="1">
+        <v>5477</v>
+      </c>
+      <c r="B5479" s="2">
+        <v>44246.54166666666</v>
+      </c>
+      <c r="C5479">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5480" spans="1:3">
+      <c r="A5480" s="1">
+        <v>5478</v>
+      </c>
+      <c r="B5480" s="2">
+        <v>44246.54861111111</v>
+      </c>
+      <c r="C5480">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5481" spans="1:3">
+      <c r="A5481" s="1">
+        <v>5479</v>
+      </c>
+      <c r="B5481" s="2">
+        <v>44246.55555555555</v>
+      </c>
+      <c r="C5481">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5482" spans="1:3">
+      <c r="A5482" s="1">
+        <v>5480</v>
+      </c>
+      <c r="B5482" s="2">
+        <v>44246.5625</v>
+      </c>
+      <c r="C5482">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5483" spans="1:3">
+      <c r="A5483" s="1">
+        <v>5481</v>
+      </c>
+      <c r="B5483" s="2">
+        <v>44246.56944444445</v>
+      </c>
+      <c r="C5483">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5484" spans="1:3">
+      <c r="A5484" s="1">
+        <v>5482</v>
+      </c>
+      <c r="B5484" s="2">
+        <v>44246.57638888889</v>
+      </c>
+      <c r="C5484">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5485" spans="1:3">
+      <c r="A5485" s="1">
+        <v>5483</v>
+      </c>
+      <c r="B5485" s="2">
+        <v>44246.58333333334</v>
+      </c>
+      <c r="C5485">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5486" spans="1:3">
+      <c r="A5486" s="1">
+        <v>5484</v>
+      </c>
+      <c r="B5486" s="2">
+        <v>44246.59027777778</v>
+      </c>
+      <c r="C5486">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5487" spans="1:3">
+      <c r="A5487" s="1">
+        <v>5485</v>
+      </c>
+      <c r="B5487" s="2">
+        <v>44246.59722222222</v>
+      </c>
+      <c r="C5487">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5488" spans="1:3">
+      <c r="A5488" s="1">
+        <v>5486</v>
+      </c>
+      <c r="B5488" s="2">
+        <v>44246.60416666666</v>
+      </c>
+      <c r="C5488">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5489" spans="1:3">
+      <c r="A5489" s="1">
+        <v>5487</v>
+      </c>
+      <c r="B5489" s="2">
+        <v>44246.61111111111</v>
+      </c>
+      <c r="C5489">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5490" spans="1:3">
+      <c r="A5490" s="1">
+        <v>5488</v>
+      </c>
+      <c r="B5490" s="2">
+        <v>44246.61805555555</v>
+      </c>
+      <c r="C5490">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5491" spans="1:3">
+      <c r="A5491" s="1">
+        <v>5489</v>
+      </c>
+      <c r="B5491" s="2">
+        <v>44246.625</v>
+      </c>
+      <c r="C5491">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5492" spans="1:3">
+      <c r="A5492" s="1">
+        <v>5490</v>
+      </c>
+      <c r="B5492" s="2">
+        <v>44246.63194444445</v>
+      </c>
+      <c r="C5492">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5493" spans="1:3">
+      <c r="A5493" s="1">
+        <v>5491</v>
+      </c>
+      <c r="B5493" s="2">
+        <v>44246.63888888889</v>
+      </c>
+      <c r="C5493">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5494" spans="1:3">
+      <c r="A5494" s="1">
+        <v>5492</v>
+      </c>
+      <c r="B5494" s="2">
+        <v>44246.64583333334</v>
+      </c>
+      <c r="C5494">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5495" spans="1:3">
+      <c r="A5495" s="1">
+        <v>5493</v>
+      </c>
+      <c r="B5495" s="2">
+        <v>44246.65277777778</v>
+      </c>
+      <c r="C5495">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5496" spans="1:3">
+      <c r="A5496" s="1">
+        <v>5494</v>
+      </c>
+      <c r="B5496" s="2">
+        <v>44246.65972222222</v>
+      </c>
+      <c r="C5496">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5497" spans="1:3">
+      <c r="A5497" s="1">
+        <v>5495</v>
+      </c>
+      <c r="B5497" s="2">
+        <v>44246.66666666666</v>
+      </c>
+      <c r="C5497">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5498" spans="1:3">
+      <c r="A5498" s="1">
+        <v>5496</v>
+      </c>
+      <c r="B5498" s="2">
+        <v>44246.67361111111</v>
+      </c>
+      <c r="C5498">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5499" spans="1:3">
+      <c r="A5499" s="1">
+        <v>5497</v>
+      </c>
+      <c r="B5499" s="2">
+        <v>44246.68055555555</v>
+      </c>
+      <c r="C5499">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5500" spans="1:3">
+      <c r="A5500" s="1">
+        <v>5498</v>
+      </c>
+      <c r="B5500" s="2">
+        <v>44246.6875</v>
+      </c>
+      <c r="C5500">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5501" spans="1:3">
+      <c r="A5501" s="1">
+        <v>5499</v>
+      </c>
+      <c r="B5501" s="2">
+        <v>44246.69444444445</v>
+      </c>
+      <c r="C5501">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5502" spans="1:3">
+      <c r="A5502" s="1">
+        <v>5500</v>
+      </c>
+      <c r="B5502" s="2">
+        <v>44246.70138888889</v>
+      </c>
+      <c r="C5502">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5503" spans="1:3">
+      <c r="A5503" s="1">
+        <v>5501</v>
+      </c>
+      <c r="B5503" s="2">
+        <v>44246.70833333334</v>
+      </c>
+      <c r="C5503">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5504" spans="1:3">
+      <c r="A5504" s="1">
+        <v>5502</v>
+      </c>
+      <c r="B5504" s="2">
+        <v>44246.71527777778</v>
+      </c>
+      <c r="C5504">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5505" spans="1:3">
+      <c r="A5505" s="1">
+        <v>5503</v>
+      </c>
+      <c r="B5505" s="2">
+        <v>44246.72222222222</v>
+      </c>
+      <c r="C5505">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5506" spans="1:3">
+      <c r="A5506" s="1">
+        <v>5504</v>
+      </c>
+      <c r="B5506" s="2">
+        <v>44246.72916666666</v>
+      </c>
+      <c r="C5506">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5507" spans="1:3">
+      <c r="A5507" s="1">
+        <v>5505</v>
+      </c>
+      <c r="B5507" s="2">
+        <v>44246.73611111111</v>
+      </c>
+      <c r="C5507">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5508" spans="1:3">
+      <c r="A5508" s="1">
+        <v>5506</v>
+      </c>
+      <c r="B5508" s="2">
+        <v>44246.74305555555</v>
+      </c>
+      <c r="C5508">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5509" spans="1:3">
+      <c r="A5509" s="1">
+        <v>5507</v>
+      </c>
+      <c r="B5509" s="2">
+        <v>44246.75</v>
+      </c>
+      <c r="C5509">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5510" spans="1:3">
+      <c r="A5510" s="1">
+        <v>5508</v>
+      </c>
+      <c r="B5510" s="2">
+        <v>44246.75694444445</v>
+      </c>
+      <c r="C5510">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5511" spans="1:3">
+      <c r="A5511" s="1">
+        <v>5509</v>
+      </c>
+      <c r="B5511" s="2">
+        <v>44246.76388888889</v>
+      </c>
+      <c r="C5511">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5512" spans="1:3">
+      <c r="A5512" s="1">
+        <v>5510</v>
+      </c>
+      <c r="B5512" s="2">
+        <v>44246.77083333334</v>
+      </c>
+      <c r="C5512">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5513" spans="1:3">
+      <c r="A5513" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B5513" s="2">
+        <v>44246.77777777778</v>
+      </c>
+      <c r="C5513">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5514" spans="1:3">
+      <c r="A5514" s="1">
+        <v>5512</v>
+      </c>
+      <c r="B5514" s="2">
+        <v>44246.78472222222</v>
+      </c>
+      <c r="C5514">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5515" spans="1:3">
+      <c r="A5515" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B5515" s="2">
+        <v>44246.79166666666</v>
+      </c>
+      <c r="C5515">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5516" spans="1:3">
+      <c r="A5516" s="1">
+        <v>5514</v>
+      </c>
+      <c r="B5516" s="2">
+        <v>44246.79861111111</v>
+      </c>
+      <c r="C5516">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5517" spans="1:3">
+      <c r="A5517" s="1">
+        <v>5515</v>
+      </c>
+      <c r="B5517" s="2">
+        <v>44246.80555555555</v>
+      </c>
+      <c r="C5517">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5518" spans="1:3">
+      <c r="A5518" s="1">
+        <v>5516</v>
+      </c>
+      <c r="B5518" s="2">
+        <v>44246.8125</v>
+      </c>
+      <c r="C5518">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5519" spans="1:3">
+      <c r="A5519" s="1">
+        <v>5517</v>
+      </c>
+      <c r="B5519" s="2">
+        <v>44246.81944444445</v>
+      </c>
+      <c r="C5519">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5520" spans="1:3">
+      <c r="A5520" s="1">
+        <v>5518</v>
+      </c>
+      <c r="B5520" s="2">
+        <v>44246.82638888889</v>
+      </c>
+      <c r="C5520">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5521" spans="1:3">
+      <c r="A5521" s="1">
+        <v>5519</v>
+      </c>
+      <c r="B5521" s="2">
+        <v>44246.83333333334</v>
+      </c>
+      <c r="C5521">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5522" spans="1:3">
+      <c r="A5522" s="1">
+        <v>5520</v>
+      </c>
+      <c r="B5522" s="2">
+        <v>44246.84027777778</v>
+      </c>
+      <c r="C5522">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5523" spans="1:3">
+      <c r="A5523" s="1">
+        <v>5521</v>
+      </c>
+      <c r="B5523" s="2">
+        <v>44246.84722222222</v>
+      </c>
+      <c r="C5523">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5524" spans="1:3">
+      <c r="A5524" s="1">
+        <v>5522</v>
+      </c>
+      <c r="B5524" s="2">
+        <v>44246.85416666666</v>
+      </c>
+      <c r="C5524">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5525" spans="1:3">
+      <c r="A5525" s="1">
+        <v>5523</v>
+      </c>
+      <c r="B5525" s="2">
+        <v>44246.86111111111</v>
+      </c>
+      <c r="C5525">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5526" spans="1:3">
+      <c r="A5526" s="1">
+        <v>5524</v>
+      </c>
+      <c r="B5526" s="2">
+        <v>44246.86805555555</v>
+      </c>
+      <c r="C5526">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5527" spans="1:3">
+      <c r="A5527" s="1">
+        <v>5525</v>
+      </c>
+      <c r="B5527" s="2">
+        <v>44246.875</v>
+      </c>
+      <c r="C5527">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5528" spans="1:3">
+      <c r="A5528" s="1">
+        <v>5526</v>
+      </c>
+      <c r="B5528" s="2">
+        <v>44246.88194444445</v>
+      </c>
+      <c r="C5528">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5529" spans="1:3">
+      <c r="A5529" s="1">
+        <v>5527</v>
+      </c>
+      <c r="B5529" s="2">
+        <v>44246.88888888889</v>
+      </c>
+      <c r="C5529">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5530" spans="1:3">
+      <c r="A5530" s="1">
+        <v>5528</v>
+      </c>
+      <c r="B5530" s="2">
+        <v>44246.89583333334</v>
+      </c>
+      <c r="C5530">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5531" spans="1:3">
+      <c r="A5531" s="1">
+        <v>5529</v>
+      </c>
+      <c r="B5531" s="2">
+        <v>44246.90277777778</v>
+      </c>
+      <c r="C5531">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5532" spans="1:3">
+      <c r="A5532" s="1">
+        <v>5530</v>
+      </c>
+      <c r="B5532" s="2">
+        <v>44246.90972222222</v>
+      </c>
+      <c r="C5532">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5533" spans="1:3">
+      <c r="A5533" s="1">
+        <v>5531</v>
+      </c>
+      <c r="B5533" s="2">
+        <v>44246.91666666666</v>
+      </c>
+      <c r="C5533">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5534" spans="1:3">
+      <c r="A5534" s="1">
+        <v>5532</v>
+      </c>
+      <c r="B5534" s="2">
+        <v>44246.92361111111</v>
+      </c>
+      <c r="C5534">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5535" spans="1:3">
+      <c r="A5535" s="1">
+        <v>5533</v>
+      </c>
+      <c r="B5535" s="2">
+        <v>44246.93055555555</v>
+      </c>
+      <c r="C5535">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5536" spans="1:3">
+      <c r="A5536" s="1">
+        <v>5534</v>
+      </c>
+      <c r="B5536" s="2">
+        <v>44246.9375</v>
+      </c>
+      <c r="C5536">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5537" spans="1:3">
+      <c r="A5537" s="1">
+        <v>5535</v>
+      </c>
+      <c r="B5537" s="2">
+        <v>44246.94444444445</v>
+      </c>
+      <c r="C5537">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5538" spans="1:3">
+      <c r="A5538" s="1">
+        <v>5536</v>
+      </c>
+      <c r="B5538" s="2">
+        <v>44246.95138888889</v>
+      </c>
+      <c r="C5538">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5539" spans="1:3">
+      <c r="A5539" s="1">
+        <v>5537</v>
+      </c>
+      <c r="B5539" s="2">
+        <v>44246.95833333334</v>
+      </c>
+      <c r="C5539">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5540" spans="1:3">
+      <c r="A5540" s="1">
+        <v>5538</v>
+      </c>
+      <c r="B5540" s="2">
+        <v>44246.96527777778</v>
+      </c>
+      <c r="C5540">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5541" spans="1:3">
+      <c r="A5541" s="1">
+        <v>5539</v>
+      </c>
+      <c r="B5541" s="2">
+        <v>44246.97222222222</v>
+      </c>
+      <c r="C5541">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5542" spans="1:3">
+      <c r="A5542" s="1">
+        <v>5540</v>
+      </c>
+      <c r="B5542" s="2">
+        <v>44246.97916666666</v>
+      </c>
+      <c r="C5542">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5543" spans="1:3">
+      <c r="A5543" s="1">
+        <v>5541</v>
+      </c>
+      <c r="B5543" s="2">
+        <v>44246.98611111111</v>
+      </c>
+      <c r="C5543">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5544" spans="1:3">
+      <c r="A5544" s="1">
+        <v>5542</v>
+      </c>
+      <c r="B5544" s="2">
+        <v>44246.99305555555</v>
+      </c>
+      <c r="C5544">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5545" spans="1:3">
+      <c r="A5545" s="1">
+        <v>5543</v>
+      </c>
+      <c r="B5545" s="2">
+        <v>44247</v>
+      </c>
+      <c r="C5545">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5546" spans="1:3">
+      <c r="A5546" s="1">
+        <v>5544</v>
+      </c>
+      <c r="B5546" s="2">
+        <v>44247.00694444445</v>
+      </c>
+      <c r="C5546">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5547" spans="1:3">
+      <c r="A5547" s="1">
+        <v>5545</v>
+      </c>
+      <c r="B5547" s="2">
+        <v>44247.01388888889</v>
+      </c>
+      <c r="C5547">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5548" spans="1:3">
+      <c r="A5548" s="1">
+        <v>5546</v>
+      </c>
+      <c r="B5548" s="2">
+        <v>44247.02083333334</v>
+      </c>
+      <c r="C5548">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5549" spans="1:3">
+      <c r="A5549" s="1">
+        <v>5547</v>
+      </c>
+      <c r="B5549" s="2">
+        <v>44247.02777777778</v>
+      </c>
+      <c r="C5549">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5550" spans="1:3">
+      <c r="A5550" s="1">
+        <v>5548</v>
+      </c>
+      <c r="B5550" s="2">
+        <v>44247.03472222222</v>
+      </c>
+      <c r="C5550">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5551" spans="1:3">
+      <c r="A5551" s="1">
+        <v>5549</v>
+      </c>
+      <c r="B5551" s="2">
+        <v>44247.04166666666</v>
+      </c>
+      <c r="C5551">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5552" spans="1:3">
+      <c r="A5552" s="1">
+        <v>5550</v>
+      </c>
+      <c r="B5552" s="2">
+        <v>44247.04861111111</v>
+      </c>
+      <c r="C5552">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5553" spans="1:3">
+      <c r="A5553" s="1">
+        <v>5551</v>
+      </c>
+      <c r="B5553" s="2">
+        <v>44247.05555555555</v>
+      </c>
+      <c r="C5553">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5554" spans="1:3">
+      <c r="A5554" s="1">
+        <v>5552</v>
+      </c>
+      <c r="B5554" s="2">
+        <v>44247.0625</v>
+      </c>
+      <c r="C5554">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5555" spans="1:3">
+      <c r="A5555" s="1">
+        <v>5553</v>
+      </c>
+      <c r="B5555" s="2">
+        <v>44247.06944444445</v>
+      </c>
+      <c r="C5555">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5556" spans="1:3">
+      <c r="A5556" s="1">
+        <v>5554</v>
+      </c>
+      <c r="B5556" s="2">
+        <v>44247.07638888889</v>
+      </c>
+      <c r="C5556">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5557" spans="1:3">
+      <c r="A5557" s="1">
+        <v>5555</v>
+      </c>
+      <c r="B5557" s="2">
+        <v>44247.08333333334</v>
+      </c>
+      <c r="C5557">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5558" spans="1:3">
+      <c r="A5558" s="1">
+        <v>5556</v>
+      </c>
+      <c r="B5558" s="2">
+        <v>44247.09027777778</v>
+      </c>
+      <c r="C5558">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5559" spans="1:3">
+      <c r="A5559" s="1">
+        <v>5557</v>
+      </c>
+      <c r="B5559" s="2">
+        <v>44247.09722222222</v>
+      </c>
+      <c r="C5559">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5560" spans="1:3">
+      <c r="A5560" s="1">
+        <v>5558</v>
+      </c>
+      <c r="B5560" s="2">
+        <v>44247.10416666666</v>
+      </c>
+      <c r="C5560">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5561" spans="1:3">
+      <c r="A5561" s="1">
+        <v>5559</v>
+      </c>
+      <c r="B5561" s="2">
+        <v>44247.11111111111</v>
+      </c>
+      <c r="C5561">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5562" spans="1:3">
+      <c r="A5562" s="1">
+        <v>5560</v>
+      </c>
+      <c r="B5562" s="2">
+        <v>44247.11805555555</v>
+      </c>
+      <c r="C5562">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5563" spans="1:3">
+      <c r="A5563" s="1">
+        <v>5561</v>
+      </c>
+      <c r="B5563" s="2">
+        <v>44247.125</v>
+      </c>
+      <c r="C5563">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5564" spans="1:3">
+      <c r="A5564" s="1">
+        <v>5562</v>
+      </c>
+      <c r="B5564" s="2">
+        <v>44247.13194444445</v>
+      </c>
+      <c r="C5564">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5565" spans="1:3">
+      <c r="A5565" s="1">
+        <v>5563</v>
+      </c>
+      <c r="B5565" s="2">
+        <v>44247.13888888889</v>
+      </c>
+      <c r="C5565">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5566" spans="1:3">
+      <c r="A5566" s="1">
+        <v>5564</v>
+      </c>
+      <c r="B5566" s="2">
+        <v>44247.14583333334</v>
+      </c>
+      <c r="C5566">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5567" spans="1:3">
+      <c r="A5567" s="1">
+        <v>5565</v>
+      </c>
+      <c r="B5567" s="2">
+        <v>44247.15277777778</v>
+      </c>
+      <c r="C5567">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5568" spans="1:3">
+      <c r="A5568" s="1">
+        <v>5566</v>
+      </c>
+      <c r="B5568" s="2">
+        <v>44247.15972222222</v>
+      </c>
+      <c r="C5568">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5569" spans="1:3">
+      <c r="A5569" s="1">
+        <v>5567</v>
+      </c>
+      <c r="B5569" s="2">
+        <v>44247.16666666666</v>
+      </c>
+      <c r="C5569">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5570" spans="1:3">
+      <c r="A5570" s="1">
+        <v>5568</v>
+      </c>
+      <c r="B5570" s="2">
+        <v>44247.17361111111</v>
+      </c>
+      <c r="C5570">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5571" spans="1:3">
+      <c r="A5571" s="1">
+        <v>5569</v>
+      </c>
+      <c r="B5571" s="2">
+        <v>44247.18055555555</v>
+      </c>
+      <c r="C5571">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5572" spans="1:3">
+      <c r="A5572" s="1">
+        <v>5570</v>
+      </c>
+      <c r="B5572" s="2">
+        <v>44247.1875</v>
+      </c>
+      <c r="C5572">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5573" spans="1:3">
+      <c r="A5573" s="1">
+        <v>5571</v>
+      </c>
+      <c r="B5573" s="2">
+        <v>44247.19444444445</v>
+      </c>
+      <c r="C5573">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5574" spans="1:3">
+      <c r="A5574" s="1">
+        <v>5572</v>
+      </c>
+      <c r="B5574" s="2">
+        <v>44247.20138888889</v>
+      </c>
+      <c r="C5574">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5575" spans="1:3">
+      <c r="A5575" s="1">
+        <v>5573</v>
+      </c>
+      <c r="B5575" s="2">
+        <v>44247.20833333334</v>
+      </c>
+      <c r="C5575">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5576" spans="1:3">
+      <c r="A5576" s="1">
+        <v>5574</v>
+      </c>
+      <c r="B5576" s="2">
+        <v>44247.21527777778</v>
+      </c>
+      <c r="C5576">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5577" spans="1:3">
+      <c r="A5577" s="1">
+        <v>5575</v>
+      </c>
+      <c r="B5577" s="2">
+        <v>44247.22222222222</v>
+      </c>
+      <c r="C5577">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5578" spans="1:3">
+      <c r="A5578" s="1">
+        <v>5576</v>
+      </c>
+      <c r="B5578" s="2">
+        <v>44247.22916666666</v>
+      </c>
+      <c r="C5578">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5579" spans="1:3">
+      <c r="A5579" s="1">
+        <v>5577</v>
+      </c>
+      <c r="B5579" s="2">
+        <v>44247.23611111111</v>
+      </c>
+      <c r="C5579">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5580" spans="1:3">
+      <c r="A5580" s="1">
+        <v>5578</v>
+      </c>
+      <c r="B5580" s="2">
+        <v>44247.24305555555</v>
+      </c>
+      <c r="C5580">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5581" spans="1:3">
+      <c r="A5581" s="1">
+        <v>5579</v>
+      </c>
+      <c r="B5581" s="2">
+        <v>44247.25</v>
+      </c>
+      <c r="C5581">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5582" spans="1:3">
+      <c r="A5582" s="1">
+        <v>5580</v>
+      </c>
+      <c r="B5582" s="2">
+        <v>44247.25694444445</v>
+      </c>
+      <c r="C5582">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5583" spans="1:3">
+      <c r="A5583" s="1">
+        <v>5581</v>
+      </c>
+      <c r="B5583" s="2">
+        <v>44247.26388888889</v>
+      </c>
+      <c r="C5583">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5584" spans="1:3">
+      <c r="A5584" s="1">
+        <v>5582</v>
+      </c>
+      <c r="B5584" s="2">
+        <v>44247.27083333334</v>
+      </c>
+      <c r="C5584">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5585" spans="1:3">
+      <c r="A5585" s="1">
+        <v>5583</v>
+      </c>
+      <c r="B5585" s="2">
+        <v>44247.27777777778</v>
+      </c>
+      <c r="C5585">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5586" spans="1:3">
+      <c r="A5586" s="1">
+        <v>5584</v>
+      </c>
+      <c r="B5586" s="2">
+        <v>44247.28472222222</v>
+      </c>
+      <c r="C5586">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5587" spans="1:3">
+      <c r="A5587" s="1">
+        <v>5585</v>
+      </c>
+      <c r="B5587" s="2">
+        <v>44247.29166666666</v>
+      </c>
+      <c r="C5587">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5588" spans="1:3">
+      <c r="A5588" s="1">
+        <v>5586</v>
+      </c>
+      <c r="B5588" s="2">
+        <v>44247.29861111111</v>
+      </c>
+      <c r="C5588">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5589" spans="1:3">
+      <c r="A5589" s="1">
+        <v>5587</v>
+      </c>
+      <c r="B5589" s="2">
+        <v>44247.30555555555</v>
+      </c>
+      <c r="C5589">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5590" spans="1:3">
+      <c r="A5590" s="1">
+        <v>5588</v>
+      </c>
+      <c r="B5590" s="2">
+        <v>44247.3125</v>
+      </c>
+      <c r="C5590">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5591" spans="1:3">
+      <c r="A5591" s="1">
+        <v>5589</v>
+      </c>
+      <c r="B5591" s="2">
+        <v>44247.31944444445</v>
+      </c>
+      <c r="C5591">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5592" spans="1:3">
+      <c r="A5592" s="1">
+        <v>5590</v>
+      </c>
+      <c r="B5592" s="2">
+        <v>44247.32638888889</v>
+      </c>
+      <c r="C5592">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5593" spans="1:3">
+      <c r="A5593" s="1">
+        <v>5591</v>
+      </c>
+      <c r="B5593" s="2">
+        <v>44247.33333333334</v>
+      </c>
+      <c r="C5593">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5594" spans="1:3">
+      <c r="A5594" s="1">
+        <v>5592</v>
+      </c>
+      <c r="B5594" s="2">
+        <v>44247.34027777778</v>
+      </c>
+      <c r="C5594">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5595" spans="1:3">
+      <c r="A5595" s="1">
+        <v>5593</v>
+      </c>
+      <c r="B5595" s="2">
+        <v>44247.34722222222</v>
+      </c>
+      <c r="C5595">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5596" spans="1:3">
+      <c r="A5596" s="1">
+        <v>5594</v>
+      </c>
+      <c r="B5596" s="2">
+        <v>44247.35416666666</v>
+      </c>
+      <c r="C5596">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5597" spans="1:3">
+      <c r="A5597" s="1">
+        <v>5595</v>
+      </c>
+      <c r="B5597" s="2">
+        <v>44247.36111111111</v>
+      </c>
+      <c r="C5597">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5598" spans="1:3">
+      <c r="A5598" s="1">
+        <v>5596</v>
+      </c>
+      <c r="B5598" s="2">
+        <v>44247.36805555555</v>
+      </c>
+      <c r="C5598">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5599" spans="1:3">
+      <c r="A5599" s="1">
+        <v>5597</v>
+      </c>
+      <c r="B5599" s="2">
+        <v>44247.375</v>
+      </c>
+      <c r="C5599">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5600" spans="1:3">
+      <c r="A5600" s="1">
+        <v>5598</v>
+      </c>
+      <c r="B5600" s="2">
+        <v>44247.38194444445</v>
+      </c>
+      <c r="C5600">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5601" spans="1:3">
+      <c r="A5601" s="1">
+        <v>5599</v>
+      </c>
+      <c r="B5601" s="2">
+        <v>44247.38888888889</v>
+      </c>
+      <c r="C5601">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5602" spans="1:3">
+      <c r="A5602" s="1">
+        <v>5600</v>
+      </c>
+      <c r="B5602" s="2">
+        <v>44247.39583333334</v>
+      </c>
+      <c r="C5602">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5603" spans="1:3">
+      <c r="A5603" s="1">
+        <v>5601</v>
+      </c>
+      <c r="B5603" s="2">
+        <v>44247.40277777778</v>
+      </c>
+      <c r="C5603">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5604" spans="1:3">
+      <c r="A5604" s="1">
+        <v>5602</v>
+      </c>
+      <c r="B5604" s="2">
+        <v>44247.40972222222</v>
+      </c>
+      <c r="C5604">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5605" spans="1:3">
+      <c r="A5605" s="1">
+        <v>5603</v>
+      </c>
+      <c r="B5605" s="2">
+        <v>44247.41666666666</v>
+      </c>
+      <c r="C5605">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5606" spans="1:3">
+      <c r="A5606" s="1">
+        <v>5604</v>
+      </c>
+      <c r="B5606" s="2">
+        <v>44247.42361111111</v>
+      </c>
+      <c r="C5606">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5607" spans="1:3">
+      <c r="A5607" s="1">
+        <v>5605</v>
+      </c>
+      <c r="B5607" s="2">
+        <v>44247.43055555555</v>
+      </c>
+      <c r="C5607">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5608" spans="1:3">
+      <c r="A5608" s="1">
+        <v>5606</v>
+      </c>
+      <c r="B5608" s="2">
+        <v>44247.4375</v>
+      </c>
+      <c r="C5608">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5609" spans="1:3">
+      <c r="A5609" s="1">
+        <v>5607</v>
+      </c>
+      <c r="B5609" s="2">
+        <v>44247.44444444445</v>
+      </c>
+      <c r="C5609">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5610" spans="1:3">
+      <c r="A5610" s="1">
+        <v>5608</v>
+      </c>
+      <c r="B5610" s="2">
+        <v>44247.45138888889</v>
+      </c>
+      <c r="C5610">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5611" spans="1:3">
+      <c r="A5611" s="1">
+        <v>5609</v>
+      </c>
+      <c r="B5611" s="2">
+        <v>44247.45833333334</v>
+      </c>
+      <c r="C5611">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5612" spans="1:3">
+      <c r="A5612" s="1">
+        <v>5610</v>
+      </c>
+      <c r="B5612" s="2">
+        <v>44247.46527777778</v>
+      </c>
+      <c r="C5612">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5613" spans="1:3">
+      <c r="A5613" s="1">
+        <v>5611</v>
+      </c>
+      <c r="B5613" s="2">
+        <v>44247.47222222222</v>
+      </c>
+      <c r="C5613">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5614" spans="1:3">
+      <c r="A5614" s="1">
+        <v>5612</v>
+      </c>
+      <c r="B5614" s="2">
+        <v>44247.47916666666</v>
+      </c>
+      <c r="C5614">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5615" spans="1:3">
+      <c r="A5615" s="1">
+        <v>5613</v>
+      </c>
+      <c r="B5615" s="2">
+        <v>44247.48611111111</v>
+      </c>
+      <c r="C5615">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5616" spans="1:3">
+      <c r="A5616" s="1">
+        <v>5614</v>
+      </c>
+      <c r="B5616" s="2">
+        <v>44247.49305555555</v>
+      </c>
+      <c r="C5616">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5617" spans="1:3">
+      <c r="A5617" s="1">
+        <v>5615</v>
+      </c>
+      <c r="B5617" s="2">
+        <v>44247.5</v>
+      </c>
+      <c r="C5617">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5618" spans="1:3">
+      <c r="A5618" s="1">
+        <v>5616</v>
+      </c>
+      <c r="B5618" s="2">
+        <v>44247.50694444445</v>
+      </c>
+      <c r="C5618">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5619" spans="1:3">
+      <c r="A5619" s="1">
+        <v>5617</v>
+      </c>
+      <c r="B5619" s="2">
+        <v>44247.51388888889</v>
+      </c>
+      <c r="C5619">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5620" spans="1:3">
+      <c r="A5620" s="1">
+        <v>5618</v>
+      </c>
+      <c r="B5620" s="2">
+        <v>44247.52083333334</v>
+      </c>
+      <c r="C5620">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5621" spans="1:3">
+      <c r="A5621" s="1">
+        <v>5619</v>
+      </c>
+      <c r="B5621" s="2">
+        <v>44247.52777777778</v>
+      </c>
+      <c r="C5621">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5622" spans="1:3">
+      <c r="A5622" s="1">
+        <v>5620</v>
+      </c>
+      <c r="B5622" s="2">
+        <v>44247.53472222222</v>
+      </c>
+      <c r="C5622">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5623" spans="1:3">
+      <c r="A5623" s="1">
+        <v>5621</v>
+      </c>
+      <c r="B5623" s="2">
+        <v>44247.54166666666</v>
+      </c>
+      <c r="C5623">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5624" spans="1:3">
+      <c r="A5624" s="1">
+        <v>5622</v>
+      </c>
+      <c r="B5624" s="2">
+        <v>44247.54861111111</v>
+      </c>
+      <c r="C5624">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5625" spans="1:3">
+      <c r="A5625" s="1">
+        <v>5623</v>
+      </c>
+      <c r="B5625" s="2">
+        <v>44247.55555555555</v>
+      </c>
+      <c r="C5625">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5626" spans="1:3">
+      <c r="A5626" s="1">
+        <v>5624</v>
+      </c>
+      <c r="B5626" s="2">
+        <v>44247.5625</v>
+      </c>
+      <c r="C5626">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5627" spans="1:3">
+      <c r="A5627" s="1">
+        <v>5625</v>
+      </c>
+      <c r="B5627" s="2">
+        <v>44247.56944444445</v>
+      </c>
+      <c r="C5627">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5628" spans="1:3">
+      <c r="A5628" s="1">
+        <v>5626</v>
+      </c>
+      <c r="B5628" s="2">
+        <v>44247.57638888889</v>
+      </c>
+      <c r="C5628">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5629" spans="1:3">
+      <c r="A5629" s="1">
+        <v>5627</v>
+      </c>
+      <c r="B5629" s="2">
+        <v>44247.58333333334</v>
+      </c>
+      <c r="C5629">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5630" spans="1:3">
+      <c r="A5630" s="1">
+        <v>5628</v>
+      </c>
+      <c r="B5630" s="2">
+        <v>44247.59027777778</v>
+      </c>
+      <c r="C5630">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5631" spans="1:3">
+      <c r="A5631" s="1">
+        <v>5629</v>
+      </c>
+      <c r="B5631" s="2">
+        <v>44247.59722222222</v>
+      </c>
+      <c r="C5631">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5632" spans="1:3">
+      <c r="A5632" s="1">
+        <v>5630</v>
+      </c>
+      <c r="B5632" s="2">
+        <v>44247.60416666666</v>
+      </c>
+      <c r="C5632">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5633" spans="1:3">
+      <c r="A5633" s="1">
+        <v>5631</v>
+      </c>
+      <c r="B5633" s="2">
+        <v>44247.61111111111</v>
+      </c>
+      <c r="C5633">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5634" spans="1:3">
+      <c r="A5634" s="1">
+        <v>5632</v>
+      </c>
+      <c r="B5634" s="2">
+        <v>44247.61805555555</v>
+      </c>
+      <c r="C5634">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5635" spans="1:3">
+      <c r="A5635" s="1">
+        <v>5633</v>
+      </c>
+      <c r="B5635" s="2">
+        <v>44247.625</v>
+      </c>
+      <c r="C5635">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5636" spans="1:3">
+      <c r="A5636" s="1">
+        <v>5634</v>
+      </c>
+      <c r="B5636" s="2">
+        <v>44247.63194444445</v>
+      </c>
+      <c r="C5636">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5637" spans="1:3">
+      <c r="A5637" s="1">
+        <v>5635</v>
+      </c>
+      <c r="B5637" s="2">
+        <v>44247.63888888889</v>
+      </c>
+      <c r="C5637">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5638" spans="1:3">
+      <c r="A5638" s="1">
+        <v>5636</v>
+      </c>
+      <c r="B5638" s="2">
+        <v>44247.64583333334</v>
+      </c>
+      <c r="C5638">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5639" spans="1:3">
+      <c r="A5639" s="1">
+        <v>5637</v>
+      </c>
+      <c r="B5639" s="2">
+        <v>44247.65277777778</v>
+      </c>
+      <c r="C5639">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5640" spans="1:3">
+      <c r="A5640" s="1">
+        <v>5638</v>
+      </c>
+      <c r="B5640" s="2">
+        <v>44247.65972222222</v>
+      </c>
+      <c r="C5640">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5641" spans="1:3">
+      <c r="A5641" s="1">
+        <v>5639</v>
+      </c>
+      <c r="B5641" s="2">
+        <v>44247.66666666666</v>
+      </c>
+      <c r="C5641">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5642" spans="1:3">
+      <c r="A5642" s="1">
+        <v>5640</v>
+      </c>
+      <c r="B5642" s="2">
+        <v>44247.67361111111</v>
+      </c>
+      <c r="C5642">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5643" spans="1:3">
+      <c r="A5643" s="1">
+        <v>5641</v>
+      </c>
+      <c r="B5643" s="2">
+        <v>44247.68055555555</v>
+      </c>
+      <c r="C5643">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5644" spans="1:3">
+      <c r="A5644" s="1">
+        <v>5642</v>
+      </c>
+      <c r="B5644" s="2">
+        <v>44247.6875</v>
+      </c>
+      <c r="C5644">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5645" spans="1:3">
+      <c r="A5645" s="1">
+        <v>5643</v>
+      </c>
+      <c r="B5645" s="2">
+        <v>44247.69444444445</v>
+      </c>
+      <c r="C5645">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5646" spans="1:3">
+      <c r="A5646" s="1">
+        <v>5644</v>
+      </c>
+      <c r="B5646" s="2">
+        <v>44247.70138888889</v>
+      </c>
+      <c r="C5646">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5647" spans="1:3">
+      <c r="A5647" s="1">
+        <v>5645</v>
+      </c>
+      <c r="B5647" s="2">
+        <v>44247.70833333334</v>
+      </c>
+      <c r="C5647">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5648" spans="1:3">
+      <c r="A5648" s="1">
+        <v>5646</v>
+      </c>
+      <c r="B5648" s="2">
+        <v>44247.71527777778</v>
+      </c>
+      <c r="C5648">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5649" spans="1:3">
+      <c r="A5649" s="1">
+        <v>5647</v>
+      </c>
+      <c r="B5649" s="2">
+        <v>44247.72222222222</v>
+      </c>
+      <c r="C5649">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5650" spans="1:3">
+      <c r="A5650" s="1">
+        <v>5648</v>
+      </c>
+      <c r="B5650" s="2">
+        <v>44247.72916666666</v>
+      </c>
+      <c r="C5650">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5651" spans="1:3">
+      <c r="A5651" s="1">
+        <v>5649</v>
+      </c>
+      <c r="B5651" s="2">
+        <v>44247.73611111111</v>
+      </c>
+      <c r="C5651">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5652" spans="1:3">
+      <c r="A5652" s="1">
+        <v>5650</v>
+      </c>
+      <c r="B5652" s="2">
+        <v>44247.74305555555</v>
+      </c>
+      <c r="C5652">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5653" spans="1:3">
+      <c r="A5653" s="1">
+        <v>5651</v>
+      </c>
+      <c r="B5653" s="2">
+        <v>44247.75</v>
+      </c>
+      <c r="C5653">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5654" spans="1:3">
+      <c r="A5654" s="1">
+        <v>5652</v>
+      </c>
+      <c r="B5654" s="2">
+        <v>44247.75694444445</v>
+      </c>
+      <c r="C5654">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5655" spans="1:3">
+      <c r="A5655" s="1">
+        <v>5653</v>
+      </c>
+      <c r="B5655" s="2">
+        <v>44247.76388888889</v>
+      </c>
+      <c r="C5655">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5656" spans="1:3">
+      <c r="A5656" s="1">
+        <v>5654</v>
+      </c>
+      <c r="B5656" s="2">
+        <v>44247.77083333334</v>
+      </c>
+      <c r="C5656">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5657" spans="1:3">
+      <c r="A5657" s="1">
+        <v>5655</v>
+      </c>
+      <c r="B5657" s="2">
+        <v>44247.77777777778</v>
+      </c>
+      <c r="C5657">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5658" spans="1:3">
+      <c r="A5658" s="1">
+        <v>5656</v>
+      </c>
+      <c r="B5658" s="2">
+        <v>44247.78472222222</v>
+      </c>
+      <c r="C5658">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5659" spans="1:3">
+      <c r="A5659" s="1">
+        <v>5657</v>
+      </c>
+      <c r="B5659" s="2">
+        <v>44247.79166666666</v>
+      </c>
+      <c r="C5659">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5660" spans="1:3">
+      <c r="A5660" s="1">
+        <v>5658</v>
+      </c>
+      <c r="B5660" s="2">
+        <v>44247.79861111111</v>
+      </c>
+      <c r="C5660">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5661" spans="1:3">
+      <c r="A5661" s="1">
+        <v>5659</v>
+      </c>
+      <c r="B5661" s="2">
+        <v>44247.80555555555</v>
+      </c>
+      <c r="C5661">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5662" spans="1:3">
+      <c r="A5662" s="1">
+        <v>5660</v>
+      </c>
+      <c r="B5662" s="2">
+        <v>44247.8125</v>
+      </c>
+      <c r="C5662">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5663" spans="1:3">
+      <c r="A5663" s="1">
+        <v>5661</v>
+      </c>
+      <c r="B5663" s="2">
+        <v>44247.81944444445</v>
+      </c>
+      <c r="C5663">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5664" spans="1:3">
+      <c r="A5664" s="1">
+        <v>5662</v>
+      </c>
+      <c r="B5664" s="2">
+        <v>44247.82638888889</v>
+      </c>
+      <c r="C5664">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5665" spans="1:3">
+      <c r="A5665" s="1">
+        <v>5663</v>
+      </c>
+      <c r="B5665" s="2">
+        <v>44247.83333333334</v>
+      </c>
+      <c r="C5665">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5666" spans="1:3">
+      <c r="A5666" s="1">
+        <v>5664</v>
+      </c>
+      <c r="B5666" s="2">
+        <v>44247.84027777778</v>
+      </c>
+      <c r="C5666">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5667" spans="1:3">
+      <c r="A5667" s="1">
+        <v>5665</v>
+      </c>
+      <c r="B5667" s="2">
+        <v>44247.84722222222</v>
+      </c>
+      <c r="C5667">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5668" spans="1:3">
+      <c r="A5668" s="1">
+        <v>5666</v>
+      </c>
+      <c r="B5668" s="2">
+        <v>44247.85416666666</v>
+      </c>
+      <c r="C5668">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5669" spans="1:3">
+      <c r="A5669" s="1">
+        <v>5667</v>
+      </c>
+      <c r="B5669" s="2">
+        <v>44247.86111111111</v>
+      </c>
+      <c r="C5669">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5670" spans="1:3">
+      <c r="A5670" s="1">
+        <v>5668</v>
+      </c>
+      <c r="B5670" s="2">
+        <v>44247.86805555555</v>
+      </c>
+      <c r="C5670">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5671" spans="1:3">
+      <c r="A5671" s="1">
+        <v>5669</v>
+      </c>
+      <c r="B5671" s="2">
+        <v>44247.875</v>
+      </c>
+      <c r="C5671">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5672" spans="1:3">
+      <c r="A5672" s="1">
+        <v>5670</v>
+      </c>
+      <c r="B5672" s="2">
+        <v>44247.88194444445</v>
+      </c>
+      <c r="C5672">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5673" spans="1:3">
+      <c r="A5673" s="1">
+        <v>5671</v>
+      </c>
+      <c r="B5673" s="2">
+        <v>44247.88888888889</v>
+      </c>
+      <c r="C5673">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5674" spans="1:3">
+      <c r="A5674" s="1">
+        <v>5672</v>
+      </c>
+      <c r="B5674" s="2">
+        <v>44247.89583333334</v>
+      </c>
+      <c r="C5674">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5675" spans="1:3">
+      <c r="A5675" s="1">
+        <v>5673</v>
+      </c>
+      <c r="B5675" s="2">
+        <v>44247.90277777778</v>
+      </c>
+      <c r="C5675">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5676" spans="1:3">
+      <c r="A5676" s="1">
+        <v>5674</v>
+      </c>
+      <c r="B5676" s="2">
+        <v>44247.90972222222</v>
+      </c>
+      <c r="C5676">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5677" spans="1:3">
+      <c r="A5677" s="1">
+        <v>5675</v>
+      </c>
+      <c r="B5677" s="2">
+        <v>44247.91666666666</v>
+      </c>
+      <c r="C5677">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5678" spans="1:3">
+      <c r="A5678" s="1">
+        <v>5676</v>
+      </c>
+      <c r="B5678" s="2">
+        <v>44247.92361111111</v>
+      </c>
+      <c r="C5678">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5679" spans="1:3">
+      <c r="A5679" s="1">
+        <v>5677</v>
+      </c>
+      <c r="B5679" s="2">
+        <v>44247.93055555555</v>
+      </c>
+      <c r="C5679">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5680" spans="1:3">
+      <c r="A5680" s="1">
+        <v>5678</v>
+      </c>
+      <c r="B5680" s="2">
+        <v>44247.9375</v>
+      </c>
+      <c r="C5680">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5681" spans="1:3">
+      <c r="A5681" s="1">
+        <v>5679</v>
+      </c>
+      <c r="B5681" s="2">
+        <v>44247.94444444445</v>
+      </c>
+      <c r="C5681">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5682" spans="1:3">
+      <c r="A5682" s="1">
+        <v>5680</v>
+      </c>
+      <c r="B5682" s="2">
+        <v>44247.95138888889</v>
+      </c>
+      <c r="C5682">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5683" spans="1:3">
+      <c r="A5683" s="1">
+        <v>5681</v>
+      </c>
+      <c r="B5683" s="2">
+        <v>44247.95833333334</v>
+      </c>
+      <c r="C5683">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5684" spans="1:3">
+      <c r="A5684" s="1">
+        <v>5682</v>
+      </c>
+      <c r="B5684" s="2">
+        <v>44247.96527777778</v>
+      </c>
+      <c r="C5684">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5685" spans="1:3">
+      <c r="A5685" s="1">
+        <v>5683</v>
+      </c>
+      <c r="B5685" s="2">
+        <v>44247.97222222222</v>
+      </c>
+      <c r="C5685">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5686" spans="1:3">
+      <c r="A5686" s="1">
+        <v>5684</v>
+      </c>
+      <c r="B5686" s="2">
+        <v>44247.97916666666</v>
+      </c>
+      <c r="C5686">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5687" spans="1:3">
+      <c r="A5687" s="1">
+        <v>5685</v>
+      </c>
+      <c r="B5687" s="2">
+        <v>44247.98611111111</v>
+      </c>
+      <c r="C5687">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5688" spans="1:3">
+      <c r="A5688" s="1">
+        <v>5686</v>
+      </c>
+      <c r="B5688" s="2">
+        <v>44247.99305555555</v>
+      </c>
+      <c r="C5688">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5689" spans="1:3">
+      <c r="A5689" s="1">
+        <v>5687</v>
+      </c>
+      <c r="B5689" s="2">
+        <v>44248</v>
+      </c>
+      <c r="C5689">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5690" spans="1:3">
+      <c r="A5690" s="1">
+        <v>5688</v>
+      </c>
+      <c r="B5690" s="2">
+        <v>44248.00694444445</v>
+      </c>
+      <c r="C5690">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5691" spans="1:3">
+      <c r="A5691" s="1">
+        <v>5689</v>
+      </c>
+      <c r="B5691" s="2">
+        <v>44248.01388888889</v>
+      </c>
+      <c r="C5691">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5692" spans="1:3">
+      <c r="A5692" s="1">
+        <v>5690</v>
+      </c>
+      <c r="B5692" s="2">
+        <v>44248.02083333334</v>
+      </c>
+      <c r="C5692">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5693" spans="1:3">
+      <c r="A5693" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B5693" s="2">
+        <v>44248.02777777778</v>
+      </c>
+      <c r="C5693">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5694" spans="1:3">
+      <c r="A5694" s="1">
+        <v>5692</v>
+      </c>
+      <c r="B5694" s="2">
+        <v>44248.03472222222</v>
+      </c>
+      <c r="C5694">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5695" spans="1:3">
+      <c r="A5695" s="1">
+        <v>5693</v>
+      </c>
+      <c r="B5695" s="2">
+        <v>44248.04166666666</v>
+      </c>
+      <c r="C5695">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5696" spans="1:3">
+      <c r="A5696" s="1">
+        <v>5694</v>
+      </c>
+      <c r="B5696" s="2">
+        <v>44248.04861111111</v>
+      </c>
+      <c r="C5696">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5697" spans="1:3">
+      <c r="A5697" s="1">
+        <v>5695</v>
+      </c>
+      <c r="B5697" s="2">
+        <v>44248.05555555555</v>
+      </c>
+      <c r="C5697">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5698" spans="1:3">
+      <c r="A5698" s="1">
+        <v>5696</v>
+      </c>
+      <c r="B5698" s="2">
+        <v>44248.0625</v>
+      </c>
+      <c r="C5698">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5699" spans="1:3">
+      <c r="A5699" s="1">
+        <v>5697</v>
+      </c>
+      <c r="B5699" s="2">
+        <v>44248.06944444445</v>
+      </c>
+      <c r="C5699">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5700" spans="1:3">
+      <c r="A5700" s="1">
+        <v>5698</v>
+      </c>
+      <c r="B5700" s="2">
+        <v>44248.07638888889</v>
+      </c>
+      <c r="C5700">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5701" spans="1:3">
+      <c r="A5701" s="1">
+        <v>5699</v>
+      </c>
+      <c r="B5701" s="2">
+        <v>44248.08333333334</v>
+      </c>
+      <c r="C5701">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5702" spans="1:3">
+      <c r="A5702" s="1">
+        <v>5700</v>
+      </c>
+      <c r="B5702" s="2">
+        <v>44248.09027777778</v>
+      </c>
+      <c r="C5702">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5703" spans="1:3">
+      <c r="A5703" s="1">
+        <v>5701</v>
+      </c>
+      <c r="B5703" s="2">
+        <v>44248.09722222222</v>
+      </c>
+      <c r="C5703">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5704" spans="1:3">
+      <c r="A5704" s="1">
+        <v>5702</v>
+      </c>
+      <c r="B5704" s="2">
+        <v>44248.10416666666</v>
+      </c>
+      <c r="C5704">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5705" spans="1:3">
+      <c r="A5705" s="1">
+        <v>5703</v>
+      </c>
+      <c r="B5705" s="2">
+        <v>44248.11111111111</v>
+      </c>
+      <c r="C5705">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5706" spans="1:3">
+      <c r="A5706" s="1">
+        <v>5704</v>
+      </c>
+      <c r="B5706" s="2">
+        <v>44248.11805555555</v>
+      </c>
+      <c r="C5706">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5707" spans="1:3">
+      <c r="A5707" s="1">
+        <v>5705</v>
+      </c>
+      <c r="B5707" s="2">
+        <v>44248.125</v>
+      </c>
+      <c r="C5707">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5708" spans="1:3">
+      <c r="A5708" s="1">
+        <v>5706</v>
+      </c>
+      <c r="B5708" s="2">
+        <v>44248.13194444445</v>
+      </c>
+      <c r="C5708">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5709" spans="1:3">
+      <c r="A5709" s="1">
+        <v>5707</v>
+      </c>
+      <c r="B5709" s="2">
+        <v>44248.13888888889</v>
+      </c>
+      <c r="C5709">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5710" spans="1:3">
+      <c r="A5710" s="1">
+        <v>5708</v>
+      </c>
+      <c r="B5710" s="2">
+        <v>44248.14583333334</v>
+      </c>
+      <c r="C5710">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5711" spans="1:3">
+      <c r="A5711" s="1">
+        <v>5709</v>
+      </c>
+      <c r="B5711" s="2">
+        <v>44248.15277777778</v>
+      </c>
+      <c r="C5711">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5712" spans="1:3">
+      <c r="A5712" s="1">
+        <v>5710</v>
+      </c>
+      <c r="B5712" s="2">
+        <v>44248.15972222222</v>
+      </c>
+      <c r="C5712">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5713" spans="1:3">
+      <c r="A5713" s="1">
+        <v>5711</v>
+      </c>
+      <c r="B5713" s="2">
+        <v>44248.16666666666</v>
+      </c>
+      <c r="C5713">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5714" spans="1:3">
+      <c r="A5714" s="1">
+        <v>5712</v>
+      </c>
+      <c r="B5714" s="2">
+        <v>44248.17361111111</v>
+      </c>
+      <c r="C5714">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5715" spans="1:3">
+      <c r="A5715" s="1">
+        <v>5713</v>
+      </c>
+      <c r="B5715" s="2">
+        <v>44248.18055555555</v>
+      </c>
+      <c r="C5715">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5716" spans="1:3">
+      <c r="A5716" s="1">
+        <v>5714</v>
+      </c>
+      <c r="B5716" s="2">
+        <v>44248.1875</v>
+      </c>
+      <c r="C5716">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5717" spans="1:3">
+      <c r="A5717" s="1">
+        <v>5715</v>
+      </c>
+      <c r="B5717" s="2">
+        <v>44248.19444444445</v>
+      </c>
+      <c r="C5717">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5718" spans="1:3">
+      <c r="A5718" s="1">
+        <v>5716</v>
+      </c>
+      <c r="B5718" s="2">
+        <v>44248.20138888889</v>
+      </c>
+      <c r="C5718">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5719" spans="1:3">
+      <c r="A5719" s="1">
+        <v>5717</v>
+      </c>
+      <c r="B5719" s="2">
+        <v>44248.20833333334</v>
+      </c>
+      <c r="C5719">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5720" spans="1:3">
+      <c r="A5720" s="1">
+        <v>5718</v>
+      </c>
+      <c r="B5720" s="2">
+        <v>44248.21527777778</v>
+      </c>
+      <c r="C5720">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5721" spans="1:3">
+      <c r="A5721" s="1">
+        <v>5719</v>
+      </c>
+      <c r="B5721" s="2">
+        <v>44248.22222222222</v>
+      </c>
+      <c r="C5721">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5722" spans="1:3">
+      <c r="A5722" s="1">
+        <v>5720</v>
+      </c>
+      <c r="B5722" s="2">
+        <v>44248.22916666666</v>
+      </c>
+      <c r="C5722">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5723" spans="1:3">
+      <c r="A5723" s="1">
+        <v>5721</v>
+      </c>
+      <c r="B5723" s="2">
+        <v>44248.23611111111</v>
+      </c>
+      <c r="C5723">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5724" spans="1:3">
+      <c r="A5724" s="1">
+        <v>5722</v>
+      </c>
+      <c r="B5724" s="2">
+        <v>44248.24305555555</v>
+      </c>
+      <c r="C5724">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5725" spans="1:3">
+      <c r="A5725" s="1">
+        <v>5723</v>
+      </c>
+      <c r="B5725" s="2">
+        <v>44248.25</v>
+      </c>
+      <c r="C5725">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5726" spans="1:3">
+      <c r="A5726" s="1">
+        <v>5724</v>
+      </c>
+      <c r="B5726" s="2">
+        <v>44248.25694444445</v>
+      </c>
+      <c r="C5726">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5727" spans="1:3">
+      <c r="A5727" s="1">
+        <v>5725</v>
+      </c>
+      <c r="B5727" s="2">
+        <v>44248.26388888889</v>
+      </c>
+      <c r="C5727">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5728" spans="1:3">
+      <c r="A5728" s="1">
+        <v>5726</v>
+      </c>
+      <c r="B5728" s="2">
+        <v>44248.27083333334</v>
+      </c>
+      <c r="C5728">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5729" spans="1:3">
+      <c r="A5729" s="1">
+        <v>5727</v>
+      </c>
+      <c r="B5729" s="2">
+        <v>44248.27777777778</v>
+      </c>
+      <c r="C5729">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5730" spans="1:3">
+      <c r="A5730" s="1">
+        <v>5728</v>
+      </c>
+      <c r="B5730" s="2">
+        <v>44248.28472222222</v>
+      </c>
+      <c r="C5730">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5731" spans="1:3">
+      <c r="A5731" s="1">
+        <v>5729</v>
+      </c>
+      <c r="B5731" s="2">
+        <v>44248.29166666666</v>
+      </c>
+      <c r="C5731">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5732" spans="1:3">
+      <c r="A5732" s="1">
+        <v>5730</v>
+      </c>
+      <c r="B5732" s="2">
+        <v>44248.29861111111</v>
+      </c>
+      <c r="C5732">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5733" spans="1:3">
+      <c r="A5733" s="1">
+        <v>5731</v>
+      </c>
+      <c r="B5733" s="2">
+        <v>44248.30555555555</v>
+      </c>
+      <c r="C5733">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5734" spans="1:3">
+      <c r="A5734" s="1">
+        <v>5732</v>
+      </c>
+      <c r="B5734" s="2">
+        <v>44248.3125</v>
+      </c>
+      <c r="C5734">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5735" spans="1:3">
+      <c r="A5735" s="1">
+        <v>5733</v>
+      </c>
+      <c r="B5735" s="2">
+        <v>44248.31944444445</v>
+      </c>
+      <c r="C5735">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5736" spans="1:3">
+      <c r="A5736" s="1">
+        <v>5734</v>
+      </c>
+      <c r="B5736" s="2">
+        <v>44248.32638888889</v>
+      </c>
+      <c r="C5736">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5737" spans="1:3">
+      <c r="A5737" s="1">
+        <v>5735</v>
+      </c>
+      <c r="B5737" s="2">
+        <v>44248.33333333334</v>
+      </c>
+      <c r="C5737">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5738" spans="1:3">
+      <c r="A5738" s="1">
+        <v>5736</v>
+      </c>
+      <c r="B5738" s="2">
+        <v>44248.34027777778</v>
+      </c>
+      <c r="C5738">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5739" spans="1:3">
+      <c r="A5739" s="1">
+        <v>5737</v>
+      </c>
+      <c r="B5739" s="2">
+        <v>44248.34722222222</v>
+      </c>
+      <c r="C5739">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5740" spans="1:3">
+      <c r="A5740" s="1">
+        <v>5738</v>
+      </c>
+      <c r="B5740" s="2">
+        <v>44248.35416666666</v>
+      </c>
+      <c r="C5740">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5741" spans="1:3">
+      <c r="A5741" s="1">
+        <v>5739</v>
+      </c>
+      <c r="B5741" s="2">
+        <v>44248.36111111111</v>
+      </c>
+      <c r="C5741">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5742" spans="1:3">
+      <c r="A5742" s="1">
+        <v>5740</v>
+      </c>
+      <c r="B5742" s="2">
+        <v>44248.36805555555</v>
+      </c>
+      <c r="C5742">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5743" spans="1:3">
+      <c r="A5743" s="1">
+        <v>5741</v>
+      </c>
+      <c r="B5743" s="2">
+        <v>44248.375</v>
+      </c>
+      <c r="C5743">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5744" spans="1:3">
+      <c r="A5744" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B5744" s="2">
+        <v>44248.38194444445</v>
+      </c>
+      <c r="C5744">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5745" spans="1:3">
+      <c r="A5745" s="1">
+        <v>5743</v>
+      </c>
+      <c r="B5745" s="2">
+        <v>44248.38888888889</v>
+      </c>
+      <c r="C5745">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5746" spans="1:3">
+      <c r="A5746" s="1">
+        <v>5744</v>
+      </c>
+      <c r="B5746" s="2">
+        <v>44248.39583333334</v>
+      </c>
+      <c r="C5746">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5747" spans="1:3">
+      <c r="A5747" s="1">
+        <v>5745</v>
+      </c>
+      <c r="B5747" s="2">
+        <v>44248.40277777778</v>
+      </c>
+      <c r="C5747">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5748" spans="1:3">
+      <c r="A5748" s="1">
+        <v>5746</v>
+      </c>
+      <c r="B5748" s="2">
+        <v>44248.40972222222</v>
+      </c>
+      <c r="C5748">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5749" spans="1:3">
+      <c r="A5749" s="1">
+        <v>5747</v>
+      </c>
+      <c r="B5749" s="2">
+        <v>44248.41666666666</v>
+      </c>
+      <c r="C5749">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5750" spans="1:3">
+      <c r="A5750" s="1">
+        <v>5748</v>
+      </c>
+      <c r="B5750" s="2">
+        <v>44248.42361111111</v>
+      </c>
+      <c r="C5750">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5751" spans="1:3">
+      <c r="A5751" s="1">
+        <v>5749</v>
+      </c>
+      <c r="B5751" s="2">
+        <v>44248.43055555555</v>
+      </c>
+      <c r="C5751">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5752" spans="1:3">
+      <c r="A5752" s="1">
+        <v>5750</v>
+      </c>
+      <c r="B5752" s="2">
+        <v>44248.4375</v>
+      </c>
+      <c r="C5752">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5753" spans="1:3">
+      <c r="A5753" s="1">
+        <v>5751</v>
+      </c>
+      <c r="B5753" s="2">
+        <v>44248.44444444445</v>
+      </c>
+      <c r="C5753">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5754" spans="1:3">
+      <c r="A5754" s="1">
+        <v>5752</v>
+      </c>
+      <c r="B5754" s="2">
+        <v>44248.45138888889</v>
+      </c>
+      <c r="C5754">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5755" spans="1:3">
+      <c r="A5755" s="1">
+        <v>5753</v>
+      </c>
+      <c r="B5755" s="2">
+        <v>44248.45833333334</v>
+      </c>
+      <c r="C5755">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5756" spans="1:3">
+      <c r="A5756" s="1">
+        <v>5754</v>
+      </c>
+      <c r="B5756" s="2">
+        <v>44248.46527777778</v>
+      </c>
+      <c r="C5756">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5757" spans="1:3">
+      <c r="A5757" s="1">
+        <v>5755</v>
+      </c>
+      <c r="B5757" s="2">
+        <v>44248.47222222222</v>
+      </c>
+      <c r="C5757">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5758" spans="1:3">
+      <c r="A5758" s="1">
+        <v>5756</v>
+      </c>
+      <c r="B5758" s="2">
+        <v>44248.47916666666</v>
+      </c>
+      <c r="C5758">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5759" spans="1:3">
+      <c r="A5759" s="1">
+        <v>5757</v>
+      </c>
+      <c r="B5759" s="2">
+        <v>44248.48611111111</v>
+      </c>
+      <c r="C5759">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5760" spans="1:3">
+      <c r="A5760" s="1">
+        <v>5758</v>
+      </c>
+      <c r="B5760" s="2">
+        <v>44248.49305555555</v>
+      </c>
+      <c r="C5760">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5761" spans="1:3">
+      <c r="A5761" s="1">
+        <v>5759</v>
+      </c>
+      <c r="B5761" s="2">
+        <v>44248.5</v>
+      </c>
+      <c r="C5761">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5762" spans="1:3">
+      <c r="A5762" s="1">
+        <v>5760</v>
+      </c>
+      <c r="B5762" s="2">
+        <v>44248.50694444445</v>
+      </c>
+      <c r="C5762">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5763" spans="1:3">
+      <c r="A5763" s="1">
+        <v>5761</v>
+      </c>
+      <c r="B5763" s="2">
+        <v>44248.51388888889</v>
+      </c>
+      <c r="C5763">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5764" spans="1:3">
+      <c r="A5764" s="1">
+        <v>5762</v>
+      </c>
+      <c r="B5764" s="2">
+        <v>44248.52083333334</v>
+      </c>
+      <c r="C5764">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5765" spans="1:3">
+      <c r="A5765" s="1">
+        <v>5763</v>
+      </c>
+      <c r="B5765" s="2">
+        <v>44248.52777777778</v>
+      </c>
+      <c r="C5765">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5766" spans="1:3">
+      <c r="A5766" s="1">
+        <v>5764</v>
+      </c>
+      <c r="B5766" s="2">
+        <v>44248.53472222222</v>
+      </c>
+      <c r="C5766">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5767" spans="1:3">
+      <c r="A5767" s="1">
+        <v>5765</v>
+      </c>
+      <c r="B5767" s="2">
+        <v>44248.54166666666</v>
+      </c>
+      <c r="C5767">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5768" spans="1:3">
+      <c r="A5768" s="1">
+        <v>5766</v>
+      </c>
+      <c r="B5768" s="2">
+        <v>44248.54861111111</v>
+      </c>
+      <c r="C5768">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5769" spans="1:3">
+      <c r="A5769" s="1">
+        <v>5767</v>
+      </c>
+      <c r="B5769" s="2">
+        <v>44248.55555555555</v>
+      </c>
+      <c r="C5769">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5770" spans="1:3">
+      <c r="A5770" s="1">
+        <v>5768</v>
+      </c>
+      <c r="B5770" s="2">
+        <v>44248.5625</v>
+      </c>
+      <c r="C5770">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5771" spans="1:3">
+      <c r="A5771" s="1">
+        <v>5769</v>
+      </c>
+      <c r="B5771" s="2">
+        <v>44248.56944444445</v>
+      </c>
+      <c r="C5771">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5772" spans="1:3">
+      <c r="A5772" s="1">
+        <v>5770</v>
+      </c>
+      <c r="B5772" s="2">
+        <v>44248.57638888889</v>
+      </c>
+      <c r="C5772">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5773" spans="1:3">
+      <c r="A5773" s="1">
+        <v>5771</v>
+      </c>
+      <c r="B5773" s="2">
+        <v>44248.58333333334</v>
+      </c>
+      <c r="C5773">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5774" spans="1:3">
+      <c r="A5774" s="1">
+        <v>5772</v>
+      </c>
+      <c r="B5774" s="2">
+        <v>44248.59027777778</v>
+      </c>
+      <c r="C5774">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5775" spans="1:3">
+      <c r="A5775" s="1">
+        <v>5773</v>
+      </c>
+      <c r="B5775" s="2">
+        <v>44248.59722222222</v>
+      </c>
+      <c r="C5775">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5776" spans="1:3">
+      <c r="A5776" s="1">
+        <v>5774</v>
+      </c>
+      <c r="B5776" s="2">
+        <v>44248.60416666666</v>
+      </c>
+      <c r="C5776">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5777" spans="1:3">
+      <c r="A5777" s="1">
+        <v>5775</v>
+      </c>
+      <c r="B5777" s="2">
+        <v>44248.61111111111</v>
+      </c>
+      <c r="C5777">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5778" spans="1:3">
+      <c r="A5778" s="1">
+        <v>5776</v>
+      </c>
+      <c r="B5778" s="2">
+        <v>44248.61805555555</v>
+      </c>
+      <c r="C5778">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5779" spans="1:3">
+      <c r="A5779" s="1">
+        <v>5777</v>
+      </c>
+      <c r="B5779" s="2">
+        <v>44248.625</v>
+      </c>
+      <c r="C5779">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5780" spans="1:3">
+      <c r="A5780" s="1">
+        <v>5778</v>
+      </c>
+      <c r="B5780" s="2">
+        <v>44248.63194444445</v>
+      </c>
+      <c r="C5780">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5781" spans="1:3">
+      <c r="A5781" s="1">
+        <v>5779</v>
+      </c>
+      <c r="B5781" s="2">
+        <v>44248.63888888889</v>
+      </c>
+      <c r="C5781">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5782" spans="1:3">
+      <c r="A5782" s="1">
+        <v>5780</v>
+      </c>
+      <c r="B5782" s="2">
+        <v>44248.64583333334</v>
+      </c>
+      <c r="C5782">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5783" spans="1:3">
+      <c r="A5783" s="1">
+        <v>5781</v>
+      </c>
+      <c r="B5783" s="2">
+        <v>44248.65277777778</v>
+      </c>
+      <c r="C5783">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5784" spans="1:3">
+      <c r="A5784" s="1">
+        <v>5782</v>
+      </c>
+      <c r="B5784" s="2">
+        <v>44248.65972222222</v>
+      </c>
+      <c r="C5784">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5785" spans="1:3">
+      <c r="A5785" s="1">
+        <v>5783</v>
+      </c>
+      <c r="B5785" s="2">
+        <v>44248.66666666666</v>
+      </c>
+      <c r="C5785">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5786" spans="1:3">
+      <c r="A5786" s="1">
+        <v>5784</v>
+      </c>
+      <c r="B5786" s="2">
+        <v>44248.67361111111</v>
+      </c>
+      <c r="C5786">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5787" spans="1:3">
+      <c r="A5787" s="1">
+        <v>5785</v>
+      </c>
+      <c r="B5787" s="2">
+        <v>44248.68055555555</v>
+      </c>
+      <c r="C5787">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5788" spans="1:3">
+      <c r="A5788" s="1">
+        <v>5786</v>
+      </c>
+      <c r="B5788" s="2">
+        <v>44248.6875</v>
+      </c>
+      <c r="C5788">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5789" spans="1:3">
+      <c r="A5789" s="1">
+        <v>5787</v>
+      </c>
+      <c r="B5789" s="2">
+        <v>44248.69444444445</v>
+      </c>
+      <c r="C5789">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5790" spans="1:3">
+      <c r="A5790" s="1">
+        <v>5788</v>
+      </c>
+      <c r="B5790" s="2">
+        <v>44248.70138888889</v>
+      </c>
+      <c r="C5790">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5791" spans="1:3">
+      <c r="A5791" s="1">
+        <v>5789</v>
+      </c>
+      <c r="B5791" s="2">
+        <v>44248.70833333334</v>
+      </c>
+      <c r="C5791">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5792" spans="1:3">
+      <c r="A5792" s="1">
+        <v>5790</v>
+      </c>
+      <c r="B5792" s="2">
+        <v>44248.71527777778</v>
+      </c>
+      <c r="C5792">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5793" spans="1:3">
+      <c r="A5793" s="1">
+        <v>5791</v>
+      </c>
+      <c r="B5793" s="2">
+        <v>44248.72222222222</v>
+      </c>
+      <c r="C5793">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5794" spans="1:3">
+      <c r="A5794" s="1">
+        <v>5792</v>
+      </c>
+      <c r="B5794" s="2">
+        <v>44248.72916666666</v>
+      </c>
+      <c r="C5794">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5795" spans="1:3">
+      <c r="A5795" s="1">
+        <v>5793</v>
+      </c>
+      <c r="B5795" s="2">
+        <v>44248.73611111111</v>
+      </c>
+      <c r="C5795">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5796" spans="1:3">
+      <c r="A5796" s="1">
+        <v>5794</v>
+      </c>
+      <c r="B5796" s="2">
+        <v>44248.74305555555</v>
+      </c>
+      <c r="C5796">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5797" spans="1:3">
+      <c r="A5797" s="1">
+        <v>5795</v>
+      </c>
+      <c r="B5797" s="2">
+        <v>44248.75</v>
+      </c>
+      <c r="C5797">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5798" spans="1:3">
+      <c r="A5798" s="1">
+        <v>5796</v>
+      </c>
+      <c r="B5798" s="2">
+        <v>44248.75694444445</v>
+      </c>
+      <c r="C5798">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5799" spans="1:3">
+      <c r="A5799" s="1">
+        <v>5797</v>
+      </c>
+      <c r="B5799" s="2">
+        <v>44248.76388888889</v>
+      </c>
+      <c r="C5799">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5800" spans="1:3">
+      <c r="A5800" s="1">
+        <v>5798</v>
+      </c>
+      <c r="B5800" s="2">
+        <v>44248.77083333334</v>
+      </c>
+      <c r="C5800">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5801" spans="1:3">
+      <c r="A5801" s="1">
+        <v>5799</v>
+      </c>
+      <c r="B5801" s="2">
+        <v>44248.77777777778</v>
+      </c>
+      <c r="C5801">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5802" spans="1:3">
+      <c r="A5802" s="1">
+        <v>5800</v>
+      </c>
+      <c r="B5802" s="2">
+        <v>44248.78472222222</v>
+      </c>
+      <c r="C5802">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5803" spans="1:3">
+      <c r="A5803" s="1">
+        <v>5801</v>
+      </c>
+      <c r="B5803" s="2">
+        <v>44248.79166666666</v>
+      </c>
+      <c r="C5803">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5804" spans="1:3">
+      <c r="A5804" s="1">
+        <v>5802</v>
+      </c>
+      <c r="B5804" s="2">
+        <v>44248.79861111111</v>
+      </c>
+      <c r="C5804">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5805" spans="1:3">
+      <c r="A5805" s="1">
+        <v>5803</v>
+      </c>
+      <c r="B5805" s="2">
+        <v>44248.80555555555</v>
+      </c>
+      <c r="C5805">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5806" spans="1:3">
+      <c r="A5806" s="1">
+        <v>5804</v>
+      </c>
+      <c r="B5806" s="2">
+        <v>44248.8125</v>
+      </c>
+      <c r="C5806">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5807" spans="1:3">
+      <c r="A5807" s="1">
+        <v>5805</v>
+      </c>
+      <c r="B5807" s="2">
+        <v>44248.81944444445</v>
+      </c>
+      <c r="C5807">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5808" spans="1:3">
+      <c r="A5808" s="1">
+        <v>5806</v>
+      </c>
+      <c r="B5808" s="2">
+        <v>44248.82638888889</v>
+      </c>
+      <c r="C5808">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5809" spans="1:3">
+      <c r="A5809" s="1">
+        <v>5807</v>
+      </c>
+      <c r="B5809" s="2">
+        <v>44248.83333333334</v>
+      </c>
+      <c r="C5809">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5810" spans="1:3">
+      <c r="A5810" s="1">
+        <v>5808</v>
+      </c>
+      <c r="B5810" s="2">
+        <v>44248.84027777778</v>
+      </c>
+      <c r="C5810">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5811" spans="1:3">
+      <c r="A5811" s="1">
+        <v>5809</v>
+      </c>
+      <c r="B5811" s="2">
+        <v>44248.84722222222</v>
+      </c>
+      <c r="C5811">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5812" spans="1:3">
+      <c r="A5812" s="1">
+        <v>5810</v>
+      </c>
+      <c r="B5812" s="2">
+        <v>44248.85416666666</v>
+      </c>
+      <c r="C5812">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5813" spans="1:3">
+      <c r="A5813" s="1">
+        <v>5811</v>
+      </c>
+      <c r="B5813" s="2">
+        <v>44248.86111111111</v>
+      </c>
+      <c r="C5813">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5814" spans="1:3">
+      <c r="A5814" s="1">
+        <v>5812</v>
+      </c>
+      <c r="B5814" s="2">
+        <v>44248.86805555555</v>
+      </c>
+      <c r="C5814">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5815" spans="1:3">
+      <c r="A5815" s="1">
+        <v>5813</v>
+      </c>
+      <c r="B5815" s="2">
+        <v>44248.875</v>
+      </c>
+      <c r="C5815">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5816" spans="1:3">
+      <c r="A5816" s="1">
+        <v>5814</v>
+      </c>
+      <c r="B5816" s="2">
+        <v>44248.88194444445</v>
+      </c>
+      <c r="C5816">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5817" spans="1:3">
+      <c r="A5817" s="1">
+        <v>5815</v>
+      </c>
+      <c r="B5817" s="2">
+        <v>44248.88888888889</v>
+      </c>
+      <c r="C5817">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5818" spans="1:3">
+      <c r="A5818" s="1">
+        <v>5816</v>
+      </c>
+      <c r="B5818" s="2">
+        <v>44248.89583333334</v>
+      </c>
+      <c r="C5818">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5819" spans="1:3">
+      <c r="A5819" s="1">
+        <v>5817</v>
+      </c>
+      <c r="B5819" s="2">
+        <v>44248.90277777778</v>
+      </c>
+      <c r="C5819">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5820" spans="1:3">
+      <c r="A5820" s="1">
+        <v>5818</v>
+      </c>
+      <c r="B5820" s="2">
+        <v>44248.90972222222</v>
+      </c>
+      <c r="C5820">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5821" spans="1:3">
+      <c r="A5821" s="1">
+        <v>5819</v>
+      </c>
+      <c r="B5821" s="2">
+        <v>44248.91666666666</v>
+      </c>
+      <c r="C5821">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5822" spans="1:3">
+      <c r="A5822" s="1">
+        <v>5820</v>
+      </c>
+      <c r="B5822" s="2">
+        <v>44248.92361111111</v>
+      </c>
+      <c r="C5822">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5823" spans="1:3">
+      <c r="A5823" s="1">
+        <v>5821</v>
+      </c>
+      <c r="B5823" s="2">
+        <v>44248.93055555555</v>
+      </c>
+      <c r="C5823">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5824" spans="1:3">
+      <c r="A5824" s="1">
+        <v>5822</v>
+      </c>
+      <c r="B5824" s="2">
+        <v>44248.9375</v>
+      </c>
+      <c r="C5824">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5825" spans="1:3">
+      <c r="A5825" s="1">
+        <v>5823</v>
+      </c>
+      <c r="B5825" s="2">
+        <v>44248.94444444445</v>
+      </c>
+      <c r="C5825">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5826" spans="1:3">
+      <c r="A5826" s="1">
+        <v>5824</v>
+      </c>
+      <c r="B5826" s="2">
+        <v>44248.95138888889</v>
+      </c>
+      <c r="C5826">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5827" spans="1:3">
+      <c r="A5827" s="1">
+        <v>5825</v>
+      </c>
+      <c r="B5827" s="2">
+        <v>44248.95833333334</v>
+      </c>
+      <c r="C5827">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5828" spans="1:3">
+      <c r="A5828" s="1">
+        <v>5826</v>
+      </c>
+      <c r="B5828" s="2">
+        <v>44248.96527777778</v>
+      </c>
+      <c r="C5828">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5829" spans="1:3">
+      <c r="A5829" s="1">
+        <v>5827</v>
+      </c>
+      <c r="B5829" s="2">
+        <v>44248.97222222222</v>
+      </c>
+      <c r="C5829">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5830" spans="1:3">
+      <c r="A5830" s="1">
+        <v>5828</v>
+      </c>
+      <c r="B5830" s="2">
+        <v>44248.97916666666</v>
+      </c>
+      <c r="C5830">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5831" spans="1:3">
+      <c r="A5831" s="1">
+        <v>5829</v>
+      </c>
+      <c r="B5831" s="2">
+        <v>44248.98611111111</v>
+      </c>
+      <c r="C5831">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5832" spans="1:3">
+      <c r="A5832" s="1">
+        <v>5830</v>
+      </c>
+      <c r="B5832" s="2">
+        <v>44248.99305555555</v>
+      </c>
+      <c r="C5832">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5833" spans="1:3">
+      <c r="A5833" s="1">
+        <v>5831</v>
+      </c>
+      <c r="B5833" s="2">
+        <v>44249</v>
+      </c>
+      <c r="C5833">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5834" spans="1:3">
+      <c r="A5834" s="1">
+        <v>5832</v>
+      </c>
+      <c r="B5834" s="2">
+        <v>44249.00694444445</v>
+      </c>
+      <c r="C5834">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5835" spans="1:3">
+      <c r="A5835" s="1">
+        <v>5833</v>
+      </c>
+      <c r="B5835" s="2">
+        <v>44249.01388888889</v>
+      </c>
+      <c r="C5835">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5836" spans="1:3">
+      <c r="A5836" s="1">
+        <v>5834</v>
+      </c>
+      <c r="B5836" s="2">
+        <v>44249.02083333334</v>
+      </c>
+      <c r="C5836">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5837" spans="1:3">
+      <c r="A5837" s="1">
+        <v>5835</v>
+      </c>
+      <c r="B5837" s="2">
+        <v>44249.02777777778</v>
+      </c>
+      <c r="C5837">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5838" spans="1:3">
+      <c r="A5838" s="1">
+        <v>5836</v>
+      </c>
+      <c r="B5838" s="2">
+        <v>44249.03472222222</v>
+      </c>
+      <c r="C5838">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5839" spans="1:3">
+      <c r="A5839" s="1">
+        <v>5837</v>
+      </c>
+      <c r="B5839" s="2">
+        <v>44249.04166666666</v>
+      </c>
+      <c r="C5839">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5840" spans="1:3">
+      <c r="A5840" s="1">
+        <v>5838</v>
+      </c>
+      <c r="B5840" s="2">
+        <v>44249.04861111111</v>
+      </c>
+      <c r="C5840">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5841" spans="1:3">
+      <c r="A5841" s="1">
+        <v>5839</v>
+      </c>
+      <c r="B5841" s="2">
+        <v>44249.05555555555</v>
+      </c>
+      <c r="C5841">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5842" spans="1:3">
+      <c r="A5842" s="1">
+        <v>5840</v>
+      </c>
+      <c r="B5842" s="2">
+        <v>44249.0625</v>
+      </c>
+      <c r="C5842">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5843" spans="1:3">
+      <c r="A5843" s="1">
+        <v>5841</v>
+      </c>
+      <c r="B5843" s="2">
+        <v>44249.06944444445</v>
+      </c>
+      <c r="C5843">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5844" spans="1:3">
+      <c r="A5844" s="1">
+        <v>5842</v>
+      </c>
+      <c r="B5844" s="2">
+        <v>44249.07638888889</v>
+      </c>
+      <c r="C5844">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5845" spans="1:3">
+      <c r="A5845" s="1">
+        <v>5843</v>
+      </c>
+      <c r="B5845" s="2">
+        <v>44249.08333333334</v>
+      </c>
+      <c r="C5845">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5846" spans="1:3">
+      <c r="A5846" s="1">
+        <v>5844</v>
+      </c>
+      <c r="B5846" s="2">
+        <v>44249.09027777778</v>
+      </c>
+      <c r="C5846">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5847" spans="1:3">
+      <c r="A5847" s="1">
+        <v>5845</v>
+      </c>
+      <c r="B5847" s="2">
+        <v>44249.09722222222</v>
+      </c>
+      <c r="C5847">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5848" spans="1:3">
+      <c r="A5848" s="1">
+        <v>5846</v>
+      </c>
+      <c r="B5848" s="2">
+        <v>44249.10416666666</v>
+      </c>
+      <c r="C5848">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5849" spans="1:3">
+      <c r="A5849" s="1">
+        <v>5847</v>
+      </c>
+      <c r="B5849" s="2">
+        <v>44249.11111111111</v>
+      </c>
+      <c r="C5849">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5850" spans="1:3">
+      <c r="A5850" s="1">
+        <v>5848</v>
+      </c>
+      <c r="B5850" s="2">
+        <v>44249.11805555555</v>
+      </c>
+      <c r="C5850">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5851" spans="1:3">
+      <c r="A5851" s="1">
+        <v>5849</v>
+      </c>
+      <c r="B5851" s="2">
+        <v>44249.125</v>
+      </c>
+      <c r="C5851">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5852" spans="1:3">
+      <c r="A5852" s="1">
+        <v>5850</v>
+      </c>
+      <c r="B5852" s="2">
+        <v>44249.13194444445</v>
+      </c>
+      <c r="C5852">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5853" spans="1:3">
+      <c r="A5853" s="1">
+        <v>5851</v>
+      </c>
+      <c r="B5853" s="2">
+        <v>44249.13888888889</v>
+      </c>
+      <c r="C5853">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5854" spans="1:3">
+      <c r="A5854" s="1">
+        <v>5852</v>
+      </c>
+      <c r="B5854" s="2">
+        <v>44249.14583333334</v>
+      </c>
+      <c r="C5854">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5855" spans="1:3">
+      <c r="A5855" s="1">
+        <v>5853</v>
+      </c>
+      <c r="B5855" s="2">
+        <v>44249.15277777778</v>
+      </c>
+      <c r="C5855">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5856" spans="1:3">
+      <c r="A5856" s="1">
+        <v>5854</v>
+      </c>
+      <c r="B5856" s="2">
+        <v>44249.15972222222</v>
+      </c>
+      <c r="C5856">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5857" spans="1:3">
+      <c r="A5857" s="1">
+        <v>5855</v>
+      </c>
+      <c r="B5857" s="2">
+        <v>44249.16666666666</v>
+      </c>
+      <c r="C5857">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5858" spans="1:3">
+      <c r="A5858" s="1">
+        <v>5856</v>
+      </c>
+      <c r="B5858" s="2">
+        <v>44249.17361111111</v>
+      </c>
+      <c r="C5858">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5859" spans="1:3">
+      <c r="A5859" s="1">
+        <v>5857</v>
+      </c>
+      <c r="B5859" s="2">
+        <v>44249.18055555555</v>
+      </c>
+      <c r="C5859">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5860" spans="1:3">
+      <c r="A5860" s="1">
+        <v>5858</v>
+      </c>
+      <c r="B5860" s="2">
+        <v>44249.1875</v>
+      </c>
+      <c r="C5860">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5861" spans="1:3">
+      <c r="A5861" s="1">
+        <v>5859</v>
+      </c>
+      <c r="B5861" s="2">
+        <v>44249.19444444445</v>
+      </c>
+      <c r="C5861">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5862" spans="1:3">
+      <c r="A5862" s="1">
+        <v>5860</v>
+      </c>
+      <c r="B5862" s="2">
+        <v>44249.20138888889</v>
+      </c>
+      <c r="C5862">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5863" spans="1:3">
+      <c r="A5863" s="1">
+        <v>5861</v>
+      </c>
+      <c r="B5863" s="2">
+        <v>44249.20833333334</v>
+      </c>
+      <c r="C5863">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5864" spans="1:3">
+      <c r="A5864" s="1">
+        <v>5862</v>
+      </c>
+      <c r="B5864" s="2">
+        <v>44249.21527777778</v>
+      </c>
+      <c r="C5864">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5865" spans="1:3">
+      <c r="A5865" s="1">
+        <v>5863</v>
+      </c>
+      <c r="B5865" s="2">
+        <v>44249.22222222222</v>
+      </c>
+      <c r="C5865">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5866" spans="1:3">
+      <c r="A5866" s="1">
+        <v>5864</v>
+      </c>
+      <c r="B5866" s="2">
+        <v>44249.22916666666</v>
+      </c>
+      <c r="C5866">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5867" spans="1:3">
+      <c r="A5867" s="1">
+        <v>5865</v>
+      </c>
+      <c r="B5867" s="2">
+        <v>44249.23611111111</v>
+      </c>
+      <c r="C5867">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5868" spans="1:3">
+      <c r="A5868" s="1">
+        <v>5866</v>
+      </c>
+      <c r="B5868" s="2">
+        <v>44249.24305555555</v>
+      </c>
+      <c r="C5868">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5869" spans="1:3">
+      <c r="A5869" s="1">
+        <v>5867</v>
+      </c>
+      <c r="B5869" s="2">
+        <v>44249.25</v>
+      </c>
+      <c r="C5869">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5870" spans="1:3">
+      <c r="A5870" s="1">
+        <v>5868</v>
+      </c>
+      <c r="B5870" s="2">
+        <v>44249.25694444445</v>
+      </c>
+      <c r="C5870">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5871" spans="1:3">
+      <c r="A5871" s="1">
+        <v>5869</v>
+      </c>
+      <c r="B5871" s="2">
+        <v>44249.26388888889</v>
+      </c>
+      <c r="C5871">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5872" spans="1:3">
+      <c r="A5872" s="1">
+        <v>5870</v>
+      </c>
+      <c r="B5872" s="2">
+        <v>44249.27083333334</v>
+      </c>
+      <c r="C5872">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5873" spans="1:3">
+      <c r="A5873" s="1">
+        <v>5871</v>
+      </c>
+      <c r="B5873" s="2">
+        <v>44249.27777777778</v>
+      </c>
+      <c r="C5873">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5874" spans="1:3">
+      <c r="A5874" s="1">
+        <v>5872</v>
+      </c>
+      <c r="B5874" s="2">
+        <v>44249.28472222222</v>
+      </c>
+      <c r="C5874">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5875" spans="1:3">
+      <c r="A5875" s="1">
+        <v>5873</v>
+      </c>
+      <c r="B5875" s="2">
+        <v>44249.29166666666</v>
+      </c>
+      <c r="C5875">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5876" spans="1:3">
+      <c r="A5876" s="1">
+        <v>5874</v>
+      </c>
+      <c r="B5876" s="2">
+        <v>44249.29861111111</v>
+      </c>
+      <c r="C5876">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5877" spans="1:3">
+      <c r="A5877" s="1">
+        <v>5875</v>
+      </c>
+      <c r="B5877" s="2">
+        <v>44249.30555555555</v>
+      </c>
+      <c r="C5877">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5878" spans="1:3">
+      <c r="A5878" s="1">
+        <v>5876</v>
+      </c>
+      <c r="B5878" s="2">
+        <v>44249.3125</v>
+      </c>
+      <c r="C5878">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5879" spans="1:3">
+      <c r="A5879" s="1">
+        <v>5877</v>
+      </c>
+      <c r="B5879" s="2">
+        <v>44249.31944444445</v>
+      </c>
+      <c r="C5879">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5880" spans="1:3">
+      <c r="A5880" s="1">
+        <v>5878</v>
+      </c>
+      <c r="B5880" s="2">
+        <v>44249.32638888889</v>
+      </c>
+      <c r="C5880">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5881" spans="1:3">
+      <c r="A5881" s="1">
+        <v>5879</v>
+      </c>
+      <c r="B5881" s="2">
+        <v>44249.33333333334</v>
+      </c>
+      <c r="C5881">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5882" spans="1:3">
+      <c r="A5882" s="1">
+        <v>5880</v>
+      </c>
+      <c r="B5882" s="2">
+        <v>44249.34027777778</v>
+      </c>
+      <c r="C5882">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5883" spans="1:3">
+      <c r="A5883" s="1">
+        <v>5881</v>
+      </c>
+      <c r="B5883" s="2">
+        <v>44249.34722222222</v>
+      </c>
+      <c r="C5883">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5884" spans="1:3">
+      <c r="A5884" s="1">
+        <v>5882</v>
+      </c>
+      <c r="B5884" s="2">
+        <v>44249.35416666666</v>
+      </c>
+      <c r="C5884">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5885" spans="1:3">
+      <c r="A5885" s="1">
+        <v>5883</v>
+      </c>
+      <c r="B5885" s="2">
+        <v>44249.36111111111</v>
+      </c>
+      <c r="C5885">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5886" spans="1:3">
+      <c r="A5886" s="1">
+        <v>5884</v>
+      </c>
+      <c r="B5886" s="2">
+        <v>44249.36805555555</v>
+      </c>
+      <c r="C5886">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5887" spans="1:3">
+      <c r="A5887" s="1">
+        <v>5885</v>
+      </c>
+      <c r="B5887" s="2">
+        <v>44249.375</v>
+      </c>
+      <c r="C5887">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5888" spans="1:3">
+      <c r="A5888" s="1">
+        <v>5886</v>
+      </c>
+      <c r="B5888" s="2">
+        <v>44249.38194444445</v>
+      </c>
+      <c r="C5888">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5889" spans="1:3">
+      <c r="A5889" s="1">
+        <v>5887</v>
+      </c>
+      <c r="B5889" s="2">
+        <v>44249.38888888889</v>
+      </c>
+      <c r="C5889">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5890" spans="1:3">
+      <c r="A5890" s="1">
+        <v>5888</v>
+      </c>
+      <c r="B5890" s="2">
+        <v>44249.39583333334</v>
+      </c>
+      <c r="C5890">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5891" spans="1:3">
+      <c r="A5891" s="1">
+        <v>5889</v>
+      </c>
+      <c r="B5891" s="2">
+        <v>44249.40277777778</v>
+      </c>
+      <c r="C5891">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5892" spans="1:3">
+      <c r="A5892" s="1">
+        <v>5890</v>
+      </c>
+      <c r="B5892" s="2">
+        <v>44249.40972222222</v>
+      </c>
+      <c r="C5892">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5893" spans="1:3">
+      <c r="A5893" s="1">
+        <v>5891</v>
+      </c>
+      <c r="B5893" s="2">
+        <v>44249.41666666666</v>
+      </c>
+      <c r="C5893">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5894" spans="1:3">
+      <c r="A5894" s="1">
+        <v>5892</v>
+      </c>
+      <c r="B5894" s="2">
+        <v>44249.42361111111</v>
+      </c>
+      <c r="C5894">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5895" spans="1:3">
+      <c r="A5895" s="1">
+        <v>5893</v>
+      </c>
+      <c r="B5895" s="2">
+        <v>44249.43055555555</v>
+      </c>
+      <c r="C5895">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5896" spans="1:3">
+      <c r="A5896" s="1">
+        <v>5894</v>
+      </c>
+      <c r="B5896" s="2">
+        <v>44249.4375</v>
+      </c>
+      <c r="C5896">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
